--- a/One year scheduling/out_Peak_reduction.xlsx
+++ b/One year scheduling/out_Peak_reduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodaira\Documents\05_Research\2. Git\ESS-scheduling\One year scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35110BBA-B5E9-42DA-87D6-0018D9BF21C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC00F60-9D69-4937-BD8F-3D284A5D8FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9036" xr2:uid="{73713A8A-D17D-4C81-8256-B25D699058C4}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="17280" windowHeight="9030" xr2:uid="{73713A8A-D17D-4C81-8256-B25D699058C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,12 +421,12 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>-0.20626700749841032</v>
+        <v>-3.8738316618930568E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1.1983558752102335</v>
+        <v>1.2310877176459298</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B324">
         <f>AVERAGE(A2:A324)</f>
-        <v>0.46870575707366424</v>
+        <v>0.46932575872479493</v>
       </c>
     </row>
     <row r="325" spans="1:2">
